--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\NLP\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A0D15B-C3AF-4099-9C60-484639D90333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
   <si>
     <t>accuracy_train</t>
   </si>
@@ -31,10 +37,7 @@
     <t>missing_names</t>
   </si>
   <si>
-    <t>acc_man</t>
-  </si>
-  <si>
-    <t>acc_women</t>
+    <t>bert</t>
   </si>
   <si>
     <t>mlp</t>
@@ -46,10 +49,10 @@
     <t>xgb</t>
   </si>
   <si>
-    <t>logreg</t>
+    <t>nb</t>
   </si>
   <si>
-    <t>nb</t>
+    <t>logreg</t>
   </si>
   <si>
     <t>enhanced</t>
@@ -63,12 +66,15 @@
   <si>
     <t>none</t>
   </si>
+  <si>
+    <t>benchmark</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +137,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +189,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +258,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,14 +434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="7" width="17.453125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,25 +467,24 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>99.99505281448364</v>
-      </c>
-      <c r="C2">
-        <v>81.48148059844971</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -467,386 +492,296 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>77.77777777777779</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>81.481481481481481</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>96.129032258064512</v>
+      </c>
+      <c r="C6">
+        <v>97.402597402597408</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>95.483870967741936</v>
+      </c>
+      <c r="C7">
+        <v>98.701298701298697</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>90</v>
-      </c>
-      <c r="H3">
-        <v>70.58823529411765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.8372000000000001</v>
-      </c>
-      <c r="C4">
-        <v>74.07407407407408</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>80</v>
-      </c>
-      <c r="H4">
-        <v>70.58823529411765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0.99965</v>
-      </c>
-      <c r="C5">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>80</v>
-      </c>
-      <c r="H6">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>99.98516440391541</v>
-      </c>
-      <c r="C7">
-        <v>77.77777910232544</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>80</v>
-      </c>
-      <c r="H7">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>96.129032258064512</v>
       </c>
       <c r="C8">
-        <v>85.18518518518519</v>
+        <v>96.103896103896105</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
-        <v>90</v>
-      </c>
-      <c r="H8">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0.8331499999999999</v>
+        <v>94.193548387096769</v>
       </c>
       <c r="C9">
-        <v>77.77777777777779</v>
+        <v>94.805194805194802</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.99955</v>
+        <v>95.609756097560975</v>
       </c>
       <c r="C10">
-        <v>77.77777777777779</v>
+        <v>70.370370370370367</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>80</v>
-      </c>
-      <c r="H10">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.99995</v>
+        <v>95.609756097560975</v>
       </c>
       <c r="C11">
-        <v>77.77777777777779</v>
+        <v>62.962962962962962</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>80</v>
-      </c>
-      <c r="H11">
-        <v>76.47058823529412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>99.98516440391541</v>
+        <v>94.838709677419359</v>
       </c>
       <c r="C12">
-        <v>85.18518805503845</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>90</v>
-      </c>
-      <c r="H12">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>94.838709677419359</v>
       </c>
       <c r="C13">
-        <v>88.88888888888889</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>90</v>
-      </c>
-      <c r="H13">
-        <v>88.23529411764706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14">
-        <v>0.83835</v>
+        <v>94.838709677419359</v>
       </c>
       <c r="C14">
-        <v>66.66666666666666</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>70</v>
-      </c>
-      <c r="H14">
-        <v>64.70588235294117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0.9996</v>
+        <v>96.129032258064512</v>
       </c>
       <c r="C15">
-        <v>81.48148148148148</v>
+        <v>88.311688311688314</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0.9999</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C16">
-        <v>77.77777777777779</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>70</v>
-      </c>
-      <c r="H16">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>99.99505281448364</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C17">
-        <v>74.07407164573669</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -855,50 +790,38 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="H17">
-        <v>94.11764705882352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0.99995</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C18">
-        <v>55.55555555555556</v>
+        <v>74.074074074074076</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>70.58823529411765</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0.8295</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C19">
-        <v>62.96296296296296</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -907,128 +830,98 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0.9996</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C20">
-        <v>70.37037037037037</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20">
-        <v>82.35294117647058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0.9999</v>
+        <v>98.536585365853654</v>
       </c>
       <c r="C21">
-        <v>62.96296296296296</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>97.41935483870968</v>
+      </c>
+      <c r="C22">
+        <v>97.402597402597408</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>99.97033476829529</v>
-      </c>
-      <c r="C22">
-        <v>90.90909361839294</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>84.375</v>
-      </c>
-      <c r="H22">
-        <v>95.55555555555556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="C23">
-        <v>93.5064935064935</v>
+        <v>98.701298701298697</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>96.875</v>
-      </c>
-      <c r="H23">
-        <v>91.11111111111111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0.7213000000000001</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="C24">
-        <v>93.5064935064935</v>
+        <v>97.402597402597408</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1039,181 +932,139 @@
       <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
-        <v>93.75</v>
-      </c>
-      <c r="H24">
-        <v>93.33333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0.99955</v>
+        <v>100</v>
       </c>
       <c r="C25">
-        <v>94.8051948051948</v>
+        <v>93.506493506493499</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>77.777779102325439</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>77.777779102325439</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
-        <v>93.75</v>
-      </c>
-      <c r="H25">
-        <v>95.55555555555556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0.99995</v>
-      </c>
-      <c r="C26">
-        <v>94.8051948051948</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>93.75</v>
-      </c>
-      <c r="H26">
-        <v>95.55555555555556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>99.99011158943176</v>
-      </c>
-      <c r="C27">
-        <v>88.31169009208679</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>81.25</v>
-      </c>
-      <c r="H27">
-        <v>93.33333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.99985</v>
+        <v>100</v>
       </c>
       <c r="C28">
-        <v>92.20779220779221</v>
+        <v>77.777779102325439</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
-      <c r="G28">
-        <v>93.75</v>
-      </c>
-      <c r="H28">
-        <v>91.11111111111111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29">
-        <v>0.731</v>
+        <v>99.024391174316406</v>
       </c>
       <c r="C29">
-        <v>97.40259740259741</v>
+        <v>66.666668653488159</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-      <c r="H29">
-        <v>95.55555555555556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30">
-        <v>0.99935</v>
+        <v>99.354839324951172</v>
       </c>
       <c r="C30">
-        <v>93.5064935064935</v>
+        <v>93.506491184234619</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>93.75</v>
-      </c>
-      <c r="H30">
-        <v>93.33333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31">
-        <v>0.9996</v>
+        <v>98.709678649902344</v>
       </c>
       <c r="C31">
-        <v>92.20779220779221</v>
+        <v>93.506491184234619</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1221,51 +1072,39 @@
       <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G31">
-        <v>93.75</v>
-      </c>
-      <c r="H31">
-        <v>91.11111111111111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32">
-        <v>99.98022317886353</v>
+        <v>99.354839324951172</v>
       </c>
       <c r="C32">
-        <v>96.10389471054077</v>
+        <v>97.402596473693848</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>94.5945945945946</v>
-      </c>
-      <c r="H32">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>98.709678649902344</v>
       </c>
       <c r="C33">
-        <v>96.1038961038961</v>
+        <v>93.506491184234619</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1273,178 +1112,136 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>95.609756097560975</v>
+      </c>
+      <c r="C34">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35">
         <v>100</v>
       </c>
-      <c r="H33">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>0.68085</v>
-      </c>
-      <c r="C34">
-        <v>94.8051948051948</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="H34">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0.99965</v>
-      </c>
       <c r="C35">
-        <v>97.40259740259741</v>
+        <v>85.18518518518519</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C36">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C37">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>0.99935</v>
-      </c>
-      <c r="C36">
-        <v>98.7012987012987</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-      <c r="H36">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>99.99505281448364</v>
-      </c>
-      <c r="C37">
-        <v>87.01298832893372</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <v>67.74193548387096</v>
-      </c>
-      <c r="H37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>95.483870967741936</v>
       </c>
       <c r="C38">
-        <v>88.31168831168831</v>
+        <v>97.402597402597408</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38">
-        <v>93.54838709677419</v>
-      </c>
-      <c r="H38">
-        <v>84.78260869565217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39">
-        <v>0.6707</v>
+        <v>94.838709677419359</v>
       </c>
       <c r="C39">
-        <v>63.63636363636363</v>
+        <v>98.701298701298697</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39">
-        <v>35.48387096774194</v>
-      </c>
-      <c r="H39">
-        <v>82.60869565217391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40">
-        <v>0.9997</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="C40">
-        <v>92.20779220779221</v>
+        <v>96.103896103896105</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1453,42 +1250,353 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>98.709677419354833</v>
+      </c>
+      <c r="C41">
+        <v>93.506493506493499</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>80.519480519480524</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>93.506493506493499</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>74.025974025974023</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>97.402597402597408</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C46">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C47">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C48">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C49">
+        <v>62.962962962962962</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C50">
+        <v>74.074074074074076</v>
+      </c>
+      <c r="D50" t="s">
         <v>15</v>
       </c>
-      <c r="G40">
-        <v>93.54838709677419</v>
-      </c>
-      <c r="H40">
-        <v>91.30434782608695</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0.9998</v>
-      </c>
-      <c r="C41">
-        <v>90.90909090909091</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C51">
+        <v>77.777777777777786</v>
+      </c>
+      <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="G41">
-        <v>93.54838709677419</v>
-      </c>
-      <c r="H41">
-        <v>89.13043478260869</v>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C52">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>98.536585365853654</v>
+      </c>
+      <c r="C53">
+        <v>51.851851851851848</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>94.193548387096769</v>
+      </c>
+      <c r="C54">
+        <v>93.506493506493499</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>94.838709677419359</v>
+      </c>
+      <c r="C55">
+        <v>93.506493506493499</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>94.193548387096769</v>
+      </c>
+      <c r="C56">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>94.193548387096769</v>
+      </c>
+      <c r="C57">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
+    <sortCondition ref="D1:D49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>